--- a/thesisdata/AbrationStudy.xlsx
+++ b/thesisdata/AbrationStudy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Keyboard</t>
     <phoneticPr fontId="1"/>
@@ -34,27 +34,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Without</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Device</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Mouse</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ACC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Press</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Keyboard</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Without</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BEST</t>
+    <t>Press sensor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9axis ACC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個々の推定結果</t>
+    <rPh sb="0" eb="2">
+      <t>ココ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ablation study</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -62,6 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,15 +99,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,18 +121,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,92 +438,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>0.61868299999999998</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
         <v>0.623444</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>0.79313500000000003</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
         <v>0.67549999999999999</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.83672999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
         <v>0.71256299999999995</v>
       </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5">
         <v>0.67715899999999996</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
         <v>0.671095</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
         <v>0.66630199999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thesisdata/AbrationStudy.xlsx
+++ b/thesisdata/AbrationStudy.xlsx
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -136,26 +136,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+      <selection activeCell="E3" sqref="E3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -451,97 +454,98 @@
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.61868299999999998</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.623444</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.79313500000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.67549999999999999</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.83672999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.71256299999999995</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
+        <v>0.66630199999999995</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.671095</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5">
         <v>0.67715899999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.671095</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.66630199999999995</v>
       </c>
     </row>
   </sheetData>

--- a/thesisdata/AbrationStudy.xlsx
+++ b/thesisdata/AbrationStudy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Keyboard</t>
     <phoneticPr fontId="1"/>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t>Ablation study</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴量の個数</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sum</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -136,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,11 +176,20 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F7"/>
+      <selection activeCell="H3" sqref="H3:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -452,14 +482,15 @@
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -469,9 +500,12 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -486,9 +520,15 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,9 +541,15 @@
       <c r="F4" s="4">
         <v>0.79313500000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -516,9 +562,15 @@
       <c r="F5" s="4">
         <v>0.83672999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -528,13 +580,19 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0.66630199999999995</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -546,6 +604,21 @@
       </c>
       <c r="F7" s="5">
         <v>0.67715899999999996</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7">
+        <f>SUM(I4:I7)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/thesisdata/AbrationStudy.xlsx
+++ b/thesisdata/AbrationStudy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Keyboard</t>
     <phoneticPr fontId="1"/>
@@ -103,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +118,19 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -157,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,17 +192,44 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,7 +522,7 @@
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -504,8 +544,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -514,109 +554,115 @@
       <c r="C3" s="4">
         <v>0.61868299999999998</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4">
         <v>0.623444</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="10">
         <v>0.79313500000000003</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4">
         <v>0.67549999999999999</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="10">
         <v>0.83672999999999997</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4">
         <v>0.71256299999999995</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="11">
         <v>0.66630199999999995</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="15">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5">
         <v>0.671095</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="11">
         <v>0.67715899999999996</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="17">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H8" s="1" t="s">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="E8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="19">
         <f>SUM(I4:I7)</f>
         <v>38</v>
       </c>

--- a/thesisdata/AbrationStudy.xlsx
+++ b/thesisdata/AbrationStudy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Keyboard</t>
     <phoneticPr fontId="1"/>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>Sum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pressure sensor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pressure sensor</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -192,44 +200,44 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,15 +522,15 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I8"/>
+      <selection activeCell="E3" sqref="E3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -545,7 +553,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -554,115 +562,115 @@
       <c r="C3" s="4">
         <v>0.61868299999999998</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4">
         <v>0.623444</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0.79313500000000003</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4">
         <v>0.67549999999999999</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>0.83672999999999997</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4">
         <v>0.71256299999999995</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0.66630199999999995</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5">
         <v>0.671095</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="10">
         <v>0.67715899999999996</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="H7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>0.61899999999999999</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <f>SUM(I4:I7)</f>
         <v>38</v>
       </c>
